--- a/gestion_factures/uploads/Facture1.xlsx
+++ b/gestion_factures/uploads/Facture1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F7317EE-DE85-9B41-8913-CA6578E194BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E839F9-91ED-4243-A85C-E6DB2C789692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Facture" sheetId="5" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>FACTURE</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Article numéro 1</t>
-  </si>
-  <si>
     <t>Les articles dont le prix est supérieur à ce montant bénéficient d’une remise supplémentaire</t>
   </si>
   <si>
@@ -204,10 +201,22 @@
     <t>Remise appliquée</t>
   </si>
   <si>
-    <t>Tech Innov SARL</t>
-  </si>
-  <si>
     <t>20240430-001</t>
+  </si>
+  <si>
+    <t>Engie</t>
+  </si>
+  <si>
+    <t>Abonnement</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Échéance</t>
   </si>
 </sst>
 </file>
@@ -472,7 +481,7 @@
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -548,6 +557,11 @@
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -587,8 +601,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Comma" xfId="12" builtinId="3" customBuiltin="1"/>
@@ -621,6 +636,21 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -666,11 +696,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -704,6 +730,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -734,11 +775,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -750,36 +795,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1096,13 +1111,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DétailsFacture" displayName="DétailsFacture" ref="B17:F29" totalsRowCount="1" headerRowDxfId="10">
   <autoFilter ref="B17:F28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Quantité" totalsRowLabel="Sous_total" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="8" totalsRowDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Prix unitaire" dataDxfId="7" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Montant" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1" totalsRowCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Quantité" totalsRowLabel="Sous_total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Prix unitaire" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Montant" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" totalsRowCellStyle="Currency">
       <calculatedColumnFormula>Montant</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remise appliquée" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Icône">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remise appliquée" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Icône">
       <calculatedColumnFormula>Remise_appliquée</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1412,7 +1427,7 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1426,22 +1441,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="2:6" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="2:6" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E3" s="9"/>
@@ -1454,10 +1469,10 @@
       <c r="C4"/>
       <c r="D4" s="2"/>
       <c r="E4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="38">
-        <v>45777</v>
+        <v>25</v>
+      </c>
+      <c r="F4" s="25">
+        <v>45659</v>
       </c>
     </row>
     <row r="5" spans="2:6" s="9" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1467,10 +1482,10 @@
       <c r="C5"/>
       <c r="D5" s="2"/>
       <c r="E5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="9" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1480,10 +1495,10 @@
       <c r="C6" s="13"/>
       <c r="D6" s="2"/>
       <c r="E6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="9" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1492,8 +1507,12 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="41">
+        <v>45690</v>
+      </c>
     </row>
     <row r="8" spans="2:6" s="9" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23" t="s">
@@ -1508,63 +1527,63 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="2:6" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+    </row>
+    <row r="13" spans="2:6" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-    </row>
-    <row r="13" spans="2:6" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34">
+      <c r="E13" s="36"/>
+      <c r="F13" s="37">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="2:6" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="14"/>
@@ -1581,28 +1600,28 @@
         <v>17</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>18</v>
+      <c r="C18" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="6">
-        <v>1200</v>
+        <v>95</v>
       </c>
       <c r="E18" s="6">
         <f>Montant</f>
-        <v>1200</v>
+        <v>95</v>
       </c>
       <c r="F18" s="1">
         <f>Remise_appliquée</f>
@@ -1610,20 +1629,38 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="4">
+        <v>170</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <f>DétailsFacture[[#This Row],[Prix unitaire]]*DétailsFacture[[#This Row],[Quantité]]</f>
+        <v>170</v>
+      </c>
       <c r="F19" s="1">
         <f>Remise_appliquée</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="6">
+        <v>23</v>
+      </c>
+      <c r="E20" s="6">
+        <f>DétailsFacture[[#This Row],[Prix unitaire]]*DétailsFacture[[#This Row],[Quantité]]</f>
+        <v>23</v>
+      </c>
       <c r="F20" s="1">
         <f>Remise_appliquée</f>
         <v>0</v>
@@ -1741,54 +1778,54 @@
       <c r="D29" s="7"/>
       <c r="E29" s="6">
         <f>SUBTOTAL(109,DétailsFacture[Montant])</f>
-        <v>1200</v>
+        <v>288</v>
       </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="29"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="29"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E31" s="19">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="30"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="24" cm="1">
         <f t="array" ref="E33">Solde_dû</f>
-        <v>1317.6</v>
+        <v>345.6</v>
       </c>
       <c r="F33" s="20"/>
     </row>
